--- a/variazioni/20210601_variazioni.xlsx
+++ b/variazioni/20210601_variazioni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>cod_percorso</t>
   </si>
@@ -107,21 +107,6 @@
   </si>
   <si>
     <t>RD mm carignano-foce Dongo fl 2A ma-gi-sa</t>
-  </si>
-  <si>
-    <t>0500112003</t>
-  </si>
-  <si>
-    <t>id 351 Organico lat 3 assi Bellarosa</t>
-  </si>
-  <si>
-    <t>Raccolta Umido Laterale</t>
-  </si>
-  <si>
-    <t>0500112203</t>
-  </si>
-  <si>
-    <t>id 400 Organico lat 3 assi Todde ma</t>
   </si>
   <si>
     <t>0507106703</t>
@@ -507,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +646,10 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -675,10 +660,10 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -689,80 +674,52 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
